--- a/db_files/entries_2019.xlsx
+++ b/db_files/entries_2019.xlsx
@@ -1201,9 +1201,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1212,7 +1214,7 @@
     <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1231,8 +1233,11 @@
       <c r="F1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1251,8 +1256,11 @@
       <c r="F2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1271,8 +1279,11 @@
       <c r="F3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1291,8 +1302,11 @@
       <c r="F4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1311,8 +1325,11 @@
       <c r="F5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1331,8 +1348,11 @@
       <c r="F6" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1351,8 +1371,11 @@
       <c r="F7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1371,8 +1394,11 @@
       <c r="F8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1391,8 +1417,11 @@
       <c r="F9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1411,8 +1440,11 @@
       <c r="F10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1431,8 +1463,11 @@
       <c r="F11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1451,8 +1486,11 @@
       <c r="F12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1471,8 +1509,11 @@
       <c r="F13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1491,8 +1532,11 @@
       <c r="F14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1511,8 +1555,11 @@
       <c r="F15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1531,8 +1578,11 @@
       <c r="F16" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1551,8 +1601,11 @@
       <c r="F17" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1571,8 +1624,11 @@
       <c r="F18" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1591,8 +1647,11 @@
       <c r="F19">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1611,8 +1670,11 @@
       <c r="F20" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1631,8 +1693,11 @@
       <c r="F21" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1651,8 +1716,11 @@
       <c r="F22" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1671,8 +1739,11 @@
       <c r="F23" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1691,8 +1762,11 @@
       <c r="F24" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1711,8 +1785,11 @@
       <c r="F25" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1731,8 +1808,11 @@
       <c r="F26" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1751,8 +1831,11 @@
       <c r="F27" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1771,8 +1854,11 @@
       <c r="F28" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1791,8 +1877,11 @@
       <c r="F29" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1811,8 +1900,11 @@
       <c r="F30" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1831,8 +1923,11 @@
       <c r="F31" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1851,8 +1946,11 @@
       <c r="F32" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -1871,8 +1969,11 @@
       <c r="F33" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -1891,8 +1992,11 @@
       <c r="F34" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1911,8 +2015,11 @@
       <c r="F35" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1931,8 +2038,11 @@
       <c r="F36" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -1951,8 +2061,11 @@
       <c r="F37" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -1971,8 +2084,11 @@
       <c r="F38" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -1991,8 +2107,11 @@
       <c r="F39" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -2011,8 +2130,11 @@
       <c r="F40" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -2031,8 +2153,11 @@
       <c r="F41" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -2051,8 +2176,11 @@
       <c r="F42" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -2071,8 +2199,11 @@
       <c r="F43" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>33</v>
       </c>
@@ -2091,8 +2222,11 @@
       <c r="F44" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -2111,8 +2245,11 @@
       <c r="F45" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -2131,8 +2268,11 @@
       <c r="F46" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>33</v>
       </c>
@@ -2151,8 +2291,11 @@
       <c r="F47" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -2171,8 +2314,11 @@
       <c r="F48" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>33</v>
       </c>
@@ -2191,8 +2337,11 @@
       <c r="F49" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -2211,8 +2360,11 @@
       <c r="F50" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -2231,8 +2383,11 @@
       <c r="F51" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -2251,8 +2406,11 @@
       <c r="F52" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -2271,8 +2429,11 @@
       <c r="F53" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>33</v>
       </c>
@@ -2291,8 +2452,11 @@
       <c r="F54" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -2311,8 +2475,11 @@
       <c r="F55" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -2331,8 +2498,11 @@
       <c r="F56" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>33</v>
       </c>
@@ -2351,8 +2521,11 @@
       <c r="F57" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -2371,8 +2544,11 @@
       <c r="F58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -2391,8 +2567,11 @@
       <c r="F59" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -2411,8 +2590,11 @@
       <c r="F60" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>33</v>
       </c>
@@ -2430,6 +2612,9 @@
       </c>
       <c r="F61" t="s">
         <v>120</v>
+      </c>
+      <c r="G61">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
